--- a/pwbi/Modello Architettonico/namespalle.xlsx
+++ b/pwbi/Modello Architettonico/namespalle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\Desktop\TESI\website\Web-Thesis\pwbi\Modello Architettonico\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3F4E36D-F176-4297-9E8E-DD7B87213F80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9650B5B2-98BB-4A0B-B919-5AD9430892C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -239,13 +239,13 @@
     <t>0c20acd111c25d2b1dc84fa8076ff76c</t>
   </si>
   <si>
-    <t>Spalla sinistra</t>
-  </si>
-  <si>
     <t>BEAM</t>
   </si>
   <si>
-    <t>Spalla destra</t>
+    <t>Spalladx</t>
+  </si>
+  <si>
+    <t>Spallasx</t>
   </si>
 </sst>
 </file>
@@ -738,9 +738,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Colore 1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1099,7 +1097,7 @@
   <dimension ref="A1:F68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1116,7 +1114,7 @@
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -1152,7 +1150,7 @@
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -1403,7 +1401,7 @@
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -1663,76 +1661,6 @@
       <c r="D68" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="68">
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A60:D60"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A52:D52"/>
-    <mergeCell ref="A53:D53"/>
-    <mergeCell ref="A54:D54"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A58:D58"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="A67:D67"/>
-    <mergeCell ref="A68:D68"/>
-    <mergeCell ref="A61:D61"/>
-    <mergeCell ref="A62:D62"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A64:D64"/>
-    <mergeCell ref="A65:D65"/>
-    <mergeCell ref="A66:D66"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>